--- a/data/bulk/out/AAA_f13_text.xlsx_out.xlsx
+++ b/data/bulk/out/AAA_f13_text.xlsx_out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="493">
   <si>
     <t>UNIQUEID</t>
   </si>
@@ -584,7 +584,7 @@
     <t>Desk-based Assessment</t>
   </si>
   <si>
-    <t>2022-07-26</t>
+    <t>2022-08-12</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1460,61 +1460,37 @@
     <t>Low</t>
   </si>
   <si>
-    <t>E01N36-41</t>
-  </si>
-  <si>
-    <t>E02N36-13</t>
-  </si>
-  <si>
-    <t>E02N36-31</t>
-  </si>
-  <si>
-    <t>E02N36-32</t>
-  </si>
-  <si>
-    <t>E01N36-23</t>
-  </si>
-  <si>
-    <t>E02N36-14</t>
-  </si>
-  <si>
-    <t>E02N36-41</t>
-  </si>
-  <si>
-    <t>E02N36-23</t>
-  </si>
-  <si>
-    <t>E01N36-21</t>
-  </si>
-  <si>
-    <t>E01N36-22</t>
-  </si>
-  <si>
-    <t>E01N36-24</t>
-  </si>
-  <si>
-    <t>E02N36-11</t>
-  </si>
-  <si>
-    <t>E02N36-12</t>
-  </si>
-  <si>
-    <t>E02N36-21</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Classical/Protohistoric/Pre-Islamic (North Africa)</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Fort/Fortress/Castle</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>House/Dwelling</t>
+  </si>
+  <si>
+    <t>Church/Chapel</t>
+  </si>
+  <si>
+    <t>Tomb/Grave/Burial</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Tomb/Grave/Burial</t>
   </si>
 </sst>
 </file>
@@ -1919,11 +1895,9 @@
         <v>480</v>
       </c>
       <c r="X2"/>
-      <c r="Y2" t="s">
+      <c r="Y2"/>
+      <c r="Z2" t="s">
         <v>482</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>496</v>
       </c>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -1967,19 +1941,19 @@
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS2"/>
       <c r="BT2"/>
@@ -1989,13 +1963,13 @@
       <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC2"/>
       <c r="CD2"/>
@@ -2072,11 +2046,9 @@
         <v>480</v>
       </c>
       <c r="X3"/>
-      <c r="Y3" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y3"/>
       <c r="Z3" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -2089,10 +2061,10 @@
       </c>
       <c r="AH3"/>
       <c r="AI3" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ3" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK3"/>
       <c r="AL3"/>
@@ -2124,19 +2096,19 @@
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS3"/>
       <c r="BT3"/>
@@ -2146,13 +2118,13 @@
       <c r="BX3"/>
       <c r="BY3"/>
       <c r="BZ3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC3"/>
       <c r="CD3"/>
@@ -2229,11 +2201,9 @@
         <v>481</v>
       </c>
       <c r="X4"/>
-      <c r="Y4" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -2246,10 +2216,10 @@
       </c>
       <c r="AH4"/>
       <c r="AI4" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ4" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK4"/>
       <c r="AL4"/>
@@ -2370,11 +2340,9 @@
         <v>480</v>
       </c>
       <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -2387,10 +2355,10 @@
       </c>
       <c r="AH5"/>
       <c r="AI5" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ5" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK5"/>
       <c r="AL5"/>
@@ -2422,19 +2390,19 @@
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS5"/>
       <c r="BT5"/>
@@ -2444,13 +2412,13 @@
       <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC5"/>
       <c r="CD5"/>
@@ -2527,11 +2495,9 @@
         <v>481</v>
       </c>
       <c r="X6"/>
-      <c r="Y6" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y6"/>
       <c r="Z6" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -2544,10 +2510,10 @@
       </c>
       <c r="AH6"/>
       <c r="AI6" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ6" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK6"/>
       <c r="AL6"/>
@@ -2579,19 +2545,19 @@
       <c r="BL6"/>
       <c r="BM6"/>
       <c r="BN6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS6"/>
       <c r="BT6"/>
@@ -2601,13 +2567,13 @@
       <c r="BX6"/>
       <c r="BY6"/>
       <c r="BZ6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC6"/>
       <c r="CD6"/>
@@ -2684,11 +2650,9 @@
         <v>480</v>
       </c>
       <c r="X7"/>
-      <c r="Y7" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y7"/>
       <c r="Z7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -2701,10 +2665,10 @@
       </c>
       <c r="AH7"/>
       <c r="AI7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK7"/>
       <c r="AL7"/>
@@ -2736,19 +2700,19 @@
       <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS7"/>
       <c r="BT7"/>
@@ -2758,13 +2722,13 @@
       <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC7"/>
       <c r="CD7"/>
@@ -2841,11 +2805,9 @@
         <v>481</v>
       </c>
       <c r="X8"/>
-      <c r="Y8" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y8"/>
       <c r="Z8" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA8"/>
       <c r="AB8"/>
@@ -2858,10 +2820,10 @@
       </c>
       <c r="AH8"/>
       <c r="AI8" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ8" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK8"/>
       <c r="AL8"/>
@@ -2893,19 +2855,19 @@
       <c r="BL8"/>
       <c r="BM8"/>
       <c r="BN8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS8"/>
       <c r="BT8"/>
@@ -2915,13 +2877,13 @@
       <c r="BX8"/>
       <c r="BY8"/>
       <c r="BZ8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC8"/>
       <c r="CD8"/>
@@ -2998,11 +2960,9 @@
         <v>480</v>
       </c>
       <c r="X9"/>
-      <c r="Y9" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA9"/>
       <c r="AB9"/>
@@ -3015,10 +2975,10 @@
       </c>
       <c r="AH9"/>
       <c r="AI9" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ9" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK9"/>
       <c r="AL9"/>
@@ -3050,19 +3010,19 @@
       <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS9"/>
       <c r="BT9"/>
@@ -3072,13 +3032,13 @@
       <c r="BX9"/>
       <c r="BY9"/>
       <c r="BZ9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA9" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC9"/>
       <c r="CD9"/>
@@ -3155,11 +3115,9 @@
         <v>481</v>
       </c>
       <c r="X10"/>
-      <c r="Y10" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA10"/>
       <c r="AB10"/>
@@ -3172,10 +3130,10 @@
       </c>
       <c r="AH10"/>
       <c r="AI10" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ10" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK10"/>
       <c r="AL10"/>
@@ -3207,19 +3165,19 @@
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -3229,13 +3187,13 @@
       <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -3419,11 +3377,9 @@
         <v>480</v>
       </c>
       <c r="X12"/>
-      <c r="Y12" t="s">
-        <v>485</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA12"/>
       <c r="AB12"/>
@@ -3436,10 +3392,10 @@
       </c>
       <c r="AH12"/>
       <c r="AI12" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ12" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK12"/>
       <c r="AL12"/>
@@ -3471,19 +3427,19 @@
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR12" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -3493,13 +3449,13 @@
       <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB12" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -3576,11 +3532,9 @@
         <v>480</v>
       </c>
       <c r="X13"/>
-      <c r="Y13" t="s">
-        <v>485</v>
-      </c>
+      <c r="Y13"/>
       <c r="Z13" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA13"/>
       <c r="AB13"/>
@@ -3593,10 +3547,10 @@
       </c>
       <c r="AH13"/>
       <c r="AI13" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ13" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK13"/>
       <c r="AL13"/>
@@ -3628,19 +3582,19 @@
       <c r="BL13"/>
       <c r="BM13"/>
       <c r="BN13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR13" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS13"/>
       <c r="BT13"/>
@@ -3650,13 +3604,13 @@
       <c r="BX13"/>
       <c r="BY13"/>
       <c r="BZ13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA13" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB13" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC13"/>
       <c r="CD13"/>
@@ -3733,11 +3687,9 @@
         <v>481</v>
       </c>
       <c r="X14"/>
-      <c r="Y14" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -3750,10 +3702,10 @@
       </c>
       <c r="AH14"/>
       <c r="AI14" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ14" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK14"/>
       <c r="AL14"/>
@@ -3874,11 +3826,9 @@
         <v>480</v>
       </c>
       <c r="X15"/>
-      <c r="Y15" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y15"/>
       <c r="Z15" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA15"/>
       <c r="AB15"/>
@@ -3891,10 +3841,10 @@
       </c>
       <c r="AH15"/>
       <c r="AI15" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ15" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -3926,19 +3876,19 @@
       <c r="BL15"/>
       <c r="BM15"/>
       <c r="BN15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS15"/>
       <c r="BT15"/>
@@ -3948,13 +3898,13 @@
       <c r="BX15"/>
       <c r="BY15"/>
       <c r="BZ15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB15" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC15"/>
       <c r="CD15"/>
@@ -4035,11 +3985,9 @@
         <v>481</v>
       </c>
       <c r="X16"/>
-      <c r="Y16" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA16"/>
       <c r="AB16"/>
@@ -4065,7 +4013,7 @@
       <c r="AT16"/>
       <c r="AU16"/>
       <c r="AV16" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW16" t="s">
         <v>390</v>
@@ -4073,7 +4021,9 @@
       <c r="AX16"/>
       <c r="AY16"/>
       <c r="AZ16"/>
-      <c r="BA16"/>
+      <c r="BA16" t="s">
+        <v>486</v>
+      </c>
       <c r="BB16"/>
       <c r="BC16"/>
       <c r="BD16"/>
@@ -4087,19 +4037,19 @@
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR16" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -4109,13 +4059,13 @@
       <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB16" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC16"/>
       <c r="CD16"/>
@@ -4192,11 +4142,9 @@
         <v>480</v>
       </c>
       <c r="X17"/>
-      <c r="Y17" t="s">
-        <v>485</v>
-      </c>
+      <c r="Y17"/>
       <c r="Z17" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA17"/>
       <c r="AB17"/>
@@ -4209,10 +4157,10 @@
       </c>
       <c r="AH17"/>
       <c r="AI17" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ17" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
@@ -4244,19 +4192,19 @@
       <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR17" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS17"/>
       <c r="BT17"/>
@@ -4266,13 +4214,13 @@
       <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB17" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC17"/>
       <c r="CD17"/>
@@ -4353,11 +4301,9 @@
         <v>480</v>
       </c>
       <c r="X18"/>
-      <c r="Y18" t="s">
-        <v>488</v>
-      </c>
+      <c r="Y18"/>
       <c r="Z18" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA18"/>
       <c r="AB18"/>
@@ -4370,10 +4316,10 @@
       </c>
       <c r="AH18"/>
       <c r="AI18" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ18" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK18"/>
       <c r="AL18"/>
@@ -4387,7 +4333,7 @@
       <c r="AT18"/>
       <c r="AU18"/>
       <c r="AV18" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW18" t="s">
         <v>390</v>
@@ -4395,7 +4341,9 @@
       <c r="AX18"/>
       <c r="AY18"/>
       <c r="AZ18"/>
-      <c r="BA18"/>
+      <c r="BA18" t="s">
+        <v>487</v>
+      </c>
       <c r="BB18"/>
       <c r="BC18"/>
       <c r="BD18"/>
@@ -4409,19 +4357,19 @@
       <c r="BL18"/>
       <c r="BM18"/>
       <c r="BN18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR18" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS18"/>
       <c r="BT18"/>
@@ -4431,13 +4379,13 @@
       <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA18" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB18" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC18"/>
       <c r="CD18"/>
@@ -4518,11 +4466,9 @@
         <v>480</v>
       </c>
       <c r="X19"/>
-      <c r="Y19" t="s">
-        <v>488</v>
-      </c>
+      <c r="Y19"/>
       <c r="Z19" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA19"/>
       <c r="AB19"/>
@@ -4535,10 +4481,10 @@
       </c>
       <c r="AH19"/>
       <c r="AI19" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ19" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK19"/>
       <c r="AL19"/>
@@ -4552,7 +4498,7 @@
       <c r="AT19"/>
       <c r="AU19"/>
       <c r="AV19" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW19" t="s">
         <v>390</v>
@@ -4560,7 +4506,9 @@
       <c r="AX19"/>
       <c r="AY19"/>
       <c r="AZ19"/>
-      <c r="BA19"/>
+      <c r="BA19" t="s">
+        <v>487</v>
+      </c>
       <c r="BB19"/>
       <c r="BC19"/>
       <c r="BD19"/>
@@ -4574,19 +4522,19 @@
       <c r="BL19"/>
       <c r="BM19"/>
       <c r="BN19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR19" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS19"/>
       <c r="BT19"/>
@@ -4596,13 +4544,13 @@
       <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB19" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC19"/>
       <c r="CD19"/>
@@ -4683,11 +4631,9 @@
         <v>480</v>
       </c>
       <c r="X20"/>
-      <c r="Y20" t="s">
-        <v>485</v>
-      </c>
+      <c r="Y20"/>
       <c r="Z20" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA20"/>
       <c r="AB20"/>
@@ -4700,10 +4646,10 @@
       </c>
       <c r="AH20"/>
       <c r="AI20" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ20" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK20"/>
       <c r="AL20"/>
@@ -4717,7 +4663,7 @@
       <c r="AT20"/>
       <c r="AU20"/>
       <c r="AV20" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW20" t="s">
         <v>390</v>
@@ -4725,7 +4671,9 @@
       <c r="AX20"/>
       <c r="AY20"/>
       <c r="AZ20"/>
-      <c r="BA20"/>
+      <c r="BA20" t="s">
+        <v>487</v>
+      </c>
       <c r="BB20"/>
       <c r="BC20"/>
       <c r="BD20"/>
@@ -4739,19 +4687,19 @@
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR20" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -4761,13 +4709,13 @@
       <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA20" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB20" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC20"/>
       <c r="CD20"/>
@@ -4844,11 +4792,9 @@
         <v>481</v>
       </c>
       <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -4861,10 +4807,10 @@
       </c>
       <c r="AH21"/>
       <c r="AI21" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ21" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK21"/>
       <c r="AL21"/>
@@ -4896,19 +4842,19 @@
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR21" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -4918,13 +4864,13 @@
       <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA21" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB21" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC21"/>
       <c r="CD21"/>
@@ -5108,11 +5054,9 @@
         <v>481</v>
       </c>
       <c r="X23"/>
-      <c r="Y23" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y23"/>
       <c r="Z23" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA23"/>
       <c r="AB23"/>
@@ -5125,10 +5069,10 @@
       </c>
       <c r="AH23"/>
       <c r="AI23" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ23" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK23"/>
       <c r="AL23"/>
@@ -5360,11 +5304,9 @@
         <v>481</v>
       </c>
       <c r="X25"/>
-      <c r="Y25" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y25"/>
       <c r="Z25" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -5377,10 +5319,10 @@
       </c>
       <c r="AH25"/>
       <c r="AI25" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ25" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK25"/>
       <c r="AL25"/>
@@ -5394,7 +5336,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
       <c r="AV25" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW25" t="s">
         <v>390</v>
@@ -5403,7 +5345,7 @@
       <c r="AY25"/>
       <c r="AZ25"/>
       <c r="BA25" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="BB25"/>
       <c r="BC25"/>
@@ -5418,19 +5360,19 @@
       <c r="BL25"/>
       <c r="BM25"/>
       <c r="BN25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS25"/>
       <c r="BT25"/>
@@ -5440,13 +5382,13 @@
       <c r="BX25"/>
       <c r="BY25"/>
       <c r="BZ25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA25" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC25"/>
       <c r="CD25"/>
@@ -5630,11 +5572,9 @@
         <v>481</v>
       </c>
       <c r="X27"/>
-      <c r="Y27" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y27"/>
       <c r="Z27" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -5647,10 +5587,10 @@
       </c>
       <c r="AH27"/>
       <c r="AI27" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ27" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK27"/>
       <c r="AL27"/>
@@ -5682,19 +5622,19 @@
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR27" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS27"/>
       <c r="BT27"/>
@@ -5704,13 +5644,13 @@
       <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA27" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB27" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -5787,11 +5727,9 @@
         <v>481</v>
       </c>
       <c r="X28"/>
-      <c r="Y28" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y28"/>
       <c r="Z28" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -5804,10 +5742,10 @@
       </c>
       <c r="AH28"/>
       <c r="AI28" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ28" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK28"/>
       <c r="AL28"/>
@@ -5928,11 +5866,9 @@
         <v>481</v>
       </c>
       <c r="X29"/>
-      <c r="Y29" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y29"/>
       <c r="Z29" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA29"/>
       <c r="AB29"/>
@@ -5945,10 +5881,10 @@
       </c>
       <c r="AH29"/>
       <c r="AI29" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ29" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK29"/>
       <c r="AL29"/>
@@ -5980,19 +5916,19 @@
       <c r="BL29"/>
       <c r="BM29"/>
       <c r="BN29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR29" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS29"/>
       <c r="BT29"/>
@@ -6002,13 +5938,13 @@
       <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA29" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB29" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -6085,11 +6021,9 @@
         <v>481</v>
       </c>
       <c r="X30"/>
-      <c r="Y30" t="s">
-        <v>489</v>
-      </c>
+      <c r="Y30"/>
       <c r="Z30" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -6102,10 +6036,10 @@
       </c>
       <c r="AH30"/>
       <c r="AI30" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ30" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK30"/>
       <c r="AL30"/>
@@ -6333,11 +6267,9 @@
         <v>480</v>
       </c>
       <c r="X32"/>
-      <c r="Y32" t="s">
-        <v>489</v>
-      </c>
+      <c r="Y32"/>
       <c r="Z32" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA32"/>
       <c r="AB32"/>
@@ -6350,10 +6282,10 @@
       </c>
       <c r="AH32"/>
       <c r="AI32" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ32" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK32"/>
       <c r="AL32"/>
@@ -6385,19 +6317,19 @@
       <c r="BL32"/>
       <c r="BM32"/>
       <c r="BN32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS32"/>
       <c r="BT32"/>
@@ -6407,13 +6339,13 @@
       <c r="BX32"/>
       <c r="BY32"/>
       <c r="BZ32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC32"/>
       <c r="CD32"/>
@@ -6490,11 +6422,9 @@
         <v>481</v>
       </c>
       <c r="X33"/>
-      <c r="Y33" t="s">
-        <v>489</v>
-      </c>
+      <c r="Y33"/>
       <c r="Z33" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA33"/>
       <c r="AB33"/>
@@ -6538,19 +6468,19 @@
       <c r="BL33"/>
       <c r="BM33"/>
       <c r="BN33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS33"/>
       <c r="BT33"/>
@@ -6560,13 +6490,13 @@
       <c r="BX33"/>
       <c r="BY33"/>
       <c r="BZ33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA33" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB33" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC33"/>
       <c r="CD33"/>
@@ -6754,11 +6684,9 @@
         <v>481</v>
       </c>
       <c r="X35"/>
-      <c r="Y35" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y35"/>
       <c r="Z35" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA35"/>
       <c r="AB35"/>
@@ -6771,10 +6699,10 @@
       </c>
       <c r="AH35"/>
       <c r="AI35" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ35" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK35"/>
       <c r="AL35"/>
@@ -6788,7 +6716,7 @@
       <c r="AT35"/>
       <c r="AU35"/>
       <c r="AV35" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW35" t="s">
         <v>390</v>
@@ -6796,7 +6724,9 @@
       <c r="AX35"/>
       <c r="AY35"/>
       <c r="AZ35"/>
-      <c r="BA35"/>
+      <c r="BA35" t="s">
+        <v>489</v>
+      </c>
       <c r="BB35"/>
       <c r="BC35"/>
       <c r="BD35"/>
@@ -6810,19 +6740,19 @@
       <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR35" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS35"/>
       <c r="BT35"/>
@@ -6832,13 +6762,13 @@
       <c r="BX35"/>
       <c r="BY35"/>
       <c r="BZ35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB35" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC35"/>
       <c r="CD35"/>
@@ -7022,11 +6952,9 @@
         <v>480</v>
       </c>
       <c r="X37"/>
-      <c r="Y37" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y37"/>
       <c r="Z37" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA37"/>
       <c r="AB37"/>
@@ -7070,19 +6998,19 @@
       <c r="BL37"/>
       <c r="BM37"/>
       <c r="BN37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR37" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS37"/>
       <c r="BT37"/>
@@ -7092,13 +7020,13 @@
       <c r="BX37"/>
       <c r="BY37"/>
       <c r="BZ37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA37" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB37" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC37"/>
       <c r="CD37"/>
@@ -7175,11 +7103,9 @@
         <v>480</v>
       </c>
       <c r="X38"/>
-      <c r="Y38" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y38"/>
       <c r="Z38" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA38"/>
       <c r="AB38"/>
@@ -7223,19 +7149,19 @@
       <c r="BL38"/>
       <c r="BM38"/>
       <c r="BN38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR38" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS38"/>
       <c r="BT38"/>
@@ -7245,13 +7171,13 @@
       <c r="BX38"/>
       <c r="BY38"/>
       <c r="BZ38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB38" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC38"/>
       <c r="CD38"/>
@@ -7435,11 +7361,9 @@
         <v>480</v>
       </c>
       <c r="X40"/>
-      <c r="Y40" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y40"/>
       <c r="Z40" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -7483,19 +7407,19 @@
       <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR40" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS40"/>
       <c r="BT40"/>
@@ -7505,13 +7429,13 @@
       <c r="BX40"/>
       <c r="BY40"/>
       <c r="BZ40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB40" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC40"/>
       <c r="CD40"/>
@@ -7695,11 +7619,9 @@
         <v>481</v>
       </c>
       <c r="X42"/>
-      <c r="Y42" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y42"/>
       <c r="Z42" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -7712,10 +7634,10 @@
       </c>
       <c r="AH42"/>
       <c r="AI42" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ42" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK42"/>
       <c r="AL42"/>
@@ -7747,19 +7669,19 @@
       <c r="BL42"/>
       <c r="BM42"/>
       <c r="BN42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR42" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS42"/>
       <c r="BT42"/>
@@ -7769,13 +7691,13 @@
       <c r="BX42"/>
       <c r="BY42"/>
       <c r="BZ42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA42" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB42" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC42"/>
       <c r="CD42"/>
@@ -7959,11 +7881,9 @@
         <v>481</v>
       </c>
       <c r="X44"/>
-      <c r="Y44" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y44"/>
       <c r="Z44" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA44"/>
       <c r="AB44"/>
@@ -7976,10 +7896,10 @@
       </c>
       <c r="AH44"/>
       <c r="AI44" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ44" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK44"/>
       <c r="AL44"/>
@@ -8011,19 +7931,19 @@
       <c r="BL44"/>
       <c r="BM44"/>
       <c r="BN44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR44" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS44"/>
       <c r="BT44"/>
@@ -8033,13 +7953,13 @@
       <c r="BX44"/>
       <c r="BY44"/>
       <c r="BZ44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA44" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB44" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC44"/>
       <c r="CD44"/>
@@ -8223,11 +8143,9 @@
         <v>481</v>
       </c>
       <c r="X46"/>
-      <c r="Y46" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y46"/>
       <c r="Z46" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -8240,10 +8158,10 @@
       </c>
       <c r="AH46"/>
       <c r="AI46" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ46" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK46"/>
       <c r="AL46"/>
@@ -8275,19 +8193,19 @@
       <c r="BL46"/>
       <c r="BM46"/>
       <c r="BN46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR46" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS46"/>
       <c r="BT46"/>
@@ -8297,13 +8215,13 @@
       <c r="BX46"/>
       <c r="BY46"/>
       <c r="BZ46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA46" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB46" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC46"/>
       <c r="CD46"/>
@@ -8380,11 +8298,9 @@
         <v>480</v>
       </c>
       <c r="X47"/>
-      <c r="Y47" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y47"/>
       <c r="Z47" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -8397,10 +8313,10 @@
       </c>
       <c r="AH47"/>
       <c r="AI47" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ47" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -8432,19 +8348,19 @@
       <c r="BL47"/>
       <c r="BM47"/>
       <c r="BN47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR47" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS47"/>
       <c r="BT47"/>
@@ -8454,13 +8370,13 @@
       <c r="BX47"/>
       <c r="BY47"/>
       <c r="BZ47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA47" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB47" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC47"/>
       <c r="CD47"/>
@@ -8537,11 +8453,9 @@
         <v>480</v>
       </c>
       <c r="X48"/>
-      <c r="Y48" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y48"/>
       <c r="Z48" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA48"/>
       <c r="AB48"/>
@@ -8585,19 +8499,19 @@
       <c r="BL48"/>
       <c r="BM48"/>
       <c r="BN48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR48" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS48"/>
       <c r="BT48"/>
@@ -8607,13 +8521,13 @@
       <c r="BX48"/>
       <c r="BY48"/>
       <c r="BZ48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB48" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC48"/>
       <c r="CD48"/>
@@ -8797,11 +8711,9 @@
         <v>480</v>
       </c>
       <c r="X50"/>
-      <c r="Y50" t="s">
-        <v>486</v>
-      </c>
+      <c r="Y50"/>
       <c r="Z50" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -8814,10 +8726,10 @@
       </c>
       <c r="AH50"/>
       <c r="AI50" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ50" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK50"/>
       <c r="AL50"/>
@@ -8849,19 +8761,19 @@
       <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR50" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS50"/>
       <c r="BT50"/>
@@ -8871,13 +8783,13 @@
       <c r="BX50"/>
       <c r="BY50"/>
       <c r="BZ50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA50" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB50" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC50"/>
       <c r="CD50"/>
@@ -8954,11 +8866,9 @@
         <v>480</v>
       </c>
       <c r="X51"/>
-      <c r="Y51" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA51"/>
       <c r="AB51"/>
@@ -8971,10 +8881,10 @@
       </c>
       <c r="AH51"/>
       <c r="AI51" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ51" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK51"/>
       <c r="AL51"/>
@@ -9006,19 +8916,19 @@
       <c r="BL51"/>
       <c r="BM51"/>
       <c r="BN51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS51"/>
       <c r="BT51"/>
@@ -9028,13 +8938,13 @@
       <c r="BX51"/>
       <c r="BY51"/>
       <c r="BZ51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA51" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB51" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC51"/>
       <c r="CD51"/>
@@ -9111,11 +9021,9 @@
         <v>481</v>
       </c>
       <c r="X52"/>
-      <c r="Y52" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y52"/>
       <c r="Z52" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA52"/>
       <c r="AB52"/>
@@ -9159,19 +9067,19 @@
       <c r="BL52"/>
       <c r="BM52"/>
       <c r="BN52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR52" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS52"/>
       <c r="BT52"/>
@@ -9181,13 +9089,13 @@
       <c r="BX52"/>
       <c r="BY52"/>
       <c r="BZ52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB52" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC52"/>
       <c r="CD52"/>
@@ -9264,11 +9172,9 @@
         <v>480</v>
       </c>
       <c r="X53"/>
-      <c r="Y53" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y53"/>
       <c r="Z53" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA53"/>
       <c r="AB53"/>
@@ -9281,10 +9187,10 @@
       </c>
       <c r="AH53"/>
       <c r="AI53" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ53" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK53"/>
       <c r="AL53"/>
@@ -9316,19 +9222,19 @@
       <c r="BL53"/>
       <c r="BM53"/>
       <c r="BN53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR53" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS53"/>
       <c r="BT53"/>
@@ -9338,13 +9244,13 @@
       <c r="BX53"/>
       <c r="BY53"/>
       <c r="BZ53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA53" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB53" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC53"/>
       <c r="CD53"/>
@@ -9421,11 +9327,9 @@
         <v>481</v>
       </c>
       <c r="X54"/>
-      <c r="Y54" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y54"/>
       <c r="Z54" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA54"/>
       <c r="AB54"/>
@@ -9558,11 +9462,9 @@
         <v>481</v>
       </c>
       <c r="X55"/>
-      <c r="Y55" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y55"/>
       <c r="Z55" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA55"/>
       <c r="AB55"/>
@@ -9606,19 +9508,19 @@
       <c r="BL55"/>
       <c r="BM55"/>
       <c r="BN55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR55" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS55"/>
       <c r="BT55"/>
@@ -9628,13 +9530,13 @@
       <c r="BX55"/>
       <c r="BY55"/>
       <c r="BZ55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA55" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB55" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC55"/>
       <c r="CD55"/>
@@ -9711,11 +9613,9 @@
         <v>481</v>
       </c>
       <c r="X56"/>
-      <c r="Y56" t="s">
-        <v>490</v>
-      </c>
+      <c r="Y56"/>
       <c r="Z56" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA56"/>
       <c r="AB56"/>
@@ -9848,11 +9748,9 @@
         <v>481</v>
       </c>
       <c r="X57"/>
-      <c r="Y57" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y57"/>
       <c r="Z57" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA57"/>
       <c r="AB57"/>
@@ -9896,19 +9794,19 @@
       <c r="BL57"/>
       <c r="BM57"/>
       <c r="BN57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR57" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS57"/>
       <c r="BT57"/>
@@ -9918,13 +9816,13 @@
       <c r="BX57"/>
       <c r="BY57"/>
       <c r="BZ57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA57" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB57" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC57"/>
       <c r="CD57"/>
@@ -10005,11 +9903,9 @@
         <v>480</v>
       </c>
       <c r="X58"/>
-      <c r="Y58" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y58"/>
       <c r="Z58" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA58"/>
       <c r="AB58"/>
@@ -10035,7 +9931,7 @@
       <c r="AT58"/>
       <c r="AU58"/>
       <c r="AV58" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW58" t="s">
         <v>390</v>
@@ -10043,7 +9939,9 @@
       <c r="AX58"/>
       <c r="AY58"/>
       <c r="AZ58"/>
-      <c r="BA58"/>
+      <c r="BA58" t="s">
+        <v>486</v>
+      </c>
       <c r="BB58"/>
       <c r="BC58"/>
       <c r="BD58"/>
@@ -10057,19 +9955,19 @@
       <c r="BL58"/>
       <c r="BM58"/>
       <c r="BN58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR58" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS58"/>
       <c r="BT58"/>
@@ -10079,13 +9977,13 @@
       <c r="BX58"/>
       <c r="BY58"/>
       <c r="BZ58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA58" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB58" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC58"/>
       <c r="CD58"/>
@@ -10269,11 +10167,9 @@
         <v>480</v>
       </c>
       <c r="X60"/>
-      <c r="Y60" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y60"/>
       <c r="Z60" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -10317,19 +10213,19 @@
       <c r="BL60"/>
       <c r="BM60"/>
       <c r="BN60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR60" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS60"/>
       <c r="BT60"/>
@@ -10339,13 +10235,13 @@
       <c r="BX60"/>
       <c r="BY60"/>
       <c r="BZ60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA60" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB60" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC60"/>
       <c r="CD60"/>
@@ -10422,11 +10318,9 @@
         <v>480</v>
       </c>
       <c r="X61"/>
-      <c r="Y61" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y61"/>
       <c r="Z61" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -10470,19 +10364,19 @@
       <c r="BL61"/>
       <c r="BM61"/>
       <c r="BN61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR61" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS61"/>
       <c r="BT61"/>
@@ -10492,13 +10386,13 @@
       <c r="BX61"/>
       <c r="BY61"/>
       <c r="BZ61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA61" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB61" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC61"/>
       <c r="CD61"/>
@@ -10575,11 +10469,9 @@
         <v>481</v>
       </c>
       <c r="X62"/>
-      <c r="Y62" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y62"/>
       <c r="Z62" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA62"/>
       <c r="AB62"/>
@@ -10592,10 +10484,10 @@
       </c>
       <c r="AH62"/>
       <c r="AI62" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ62" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK62"/>
       <c r="AL62"/>
@@ -10627,19 +10519,19 @@
       <c r="BL62"/>
       <c r="BM62"/>
       <c r="BN62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR62" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS62"/>
       <c r="BT62"/>
@@ -10649,13 +10541,13 @@
       <c r="BX62"/>
       <c r="BY62"/>
       <c r="BZ62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB62" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC62"/>
       <c r="CD62"/>
@@ -10732,11 +10624,9 @@
         <v>481</v>
       </c>
       <c r="X63"/>
-      <c r="Y63" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y63"/>
       <c r="Z63" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA63"/>
       <c r="AB63"/>
@@ -10749,10 +10639,10 @@
       </c>
       <c r="AH63"/>
       <c r="AI63" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ63" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK63"/>
       <c r="AL63"/>
@@ -10784,19 +10674,19 @@
       <c r="BL63"/>
       <c r="BM63"/>
       <c r="BN63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR63" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS63"/>
       <c r="BT63"/>
@@ -10806,13 +10696,13 @@
       <c r="BX63"/>
       <c r="BY63"/>
       <c r="BZ63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA63" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB63" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC63"/>
       <c r="CD63"/>
@@ -10889,11 +10779,9 @@
         <v>480</v>
       </c>
       <c r="X64"/>
-      <c r="Y64" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y64"/>
       <c r="Z64" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA64"/>
       <c r="AB64"/>
@@ -10906,10 +10794,10 @@
       </c>
       <c r="AH64"/>
       <c r="AI64" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ64" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK64"/>
       <c r="AL64"/>
@@ -10941,19 +10829,19 @@
       <c r="BL64"/>
       <c r="BM64"/>
       <c r="BN64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR64" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS64"/>
       <c r="BT64"/>
@@ -10963,13 +10851,13 @@
       <c r="BX64"/>
       <c r="BY64"/>
       <c r="BZ64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB64" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC64"/>
       <c r="CD64"/>
@@ -11046,11 +10934,9 @@
         <v>480</v>
       </c>
       <c r="X65"/>
-      <c r="Y65" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y65"/>
       <c r="Z65" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA65"/>
       <c r="AB65"/>
@@ -11063,10 +10949,10 @@
       </c>
       <c r="AH65"/>
       <c r="AI65" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ65" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK65"/>
       <c r="AL65"/>
@@ -11098,19 +10984,19 @@
       <c r="BL65"/>
       <c r="BM65"/>
       <c r="BN65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR65" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS65"/>
       <c r="BT65"/>
@@ -11120,13 +11006,13 @@
       <c r="BX65"/>
       <c r="BY65"/>
       <c r="BZ65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA65" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB65" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC65"/>
       <c r="CD65"/>
@@ -11203,11 +11089,9 @@
         <v>481</v>
       </c>
       <c r="X66"/>
-      <c r="Y66" t="s">
-        <v>491</v>
-      </c>
+      <c r="Y66"/>
       <c r="Z66" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA66"/>
       <c r="AB66"/>
@@ -11220,10 +11104,10 @@
       </c>
       <c r="AH66"/>
       <c r="AI66" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ66" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK66"/>
       <c r="AL66"/>
@@ -11344,11 +11228,9 @@
         <v>480</v>
       </c>
       <c r="X67"/>
-      <c r="Y67" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y67"/>
       <c r="Z67" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA67"/>
       <c r="AB67"/>
@@ -11361,10 +11243,10 @@
       </c>
       <c r="AH67"/>
       <c r="AI67" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ67" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK67"/>
       <c r="AL67"/>
@@ -11396,19 +11278,19 @@
       <c r="BL67"/>
       <c r="BM67"/>
       <c r="BN67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR67" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS67"/>
       <c r="BT67"/>
@@ -11418,13 +11300,13 @@
       <c r="BX67"/>
       <c r="BY67"/>
       <c r="BZ67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA67" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB67" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC67"/>
       <c r="CD67"/>
@@ -11608,11 +11490,9 @@
         <v>480</v>
       </c>
       <c r="X69"/>
-      <c r="Y69" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y69"/>
       <c r="Z69" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA69"/>
       <c r="AB69"/>
@@ -11625,10 +11505,10 @@
       </c>
       <c r="AH69"/>
       <c r="AI69" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ69" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK69"/>
       <c r="AL69"/>
@@ -11660,19 +11540,19 @@
       <c r="BL69"/>
       <c r="BM69"/>
       <c r="BN69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR69" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS69"/>
       <c r="BT69"/>
@@ -11682,13 +11562,13 @@
       <c r="BX69"/>
       <c r="BY69"/>
       <c r="BZ69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA69" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB69" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC69"/>
       <c r="CD69"/>
@@ -11769,11 +11649,9 @@
         <v>481</v>
       </c>
       <c r="X70"/>
-      <c r="Y70" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y70"/>
       <c r="Z70" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA70"/>
       <c r="AB70"/>
@@ -11799,7 +11677,7 @@
       <c r="AT70"/>
       <c r="AU70"/>
       <c r="AV70" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW70" t="s">
         <v>390</v>
@@ -11807,7 +11685,9 @@
       <c r="AX70"/>
       <c r="AY70"/>
       <c r="AZ70"/>
-      <c r="BA70"/>
+      <c r="BA70" t="s">
+        <v>486</v>
+      </c>
       <c r="BB70"/>
       <c r="BC70"/>
       <c r="BD70"/>
@@ -11821,19 +11701,19 @@
       <c r="BL70"/>
       <c r="BM70"/>
       <c r="BN70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR70" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS70"/>
       <c r="BT70"/>
@@ -11843,13 +11723,13 @@
       <c r="BX70"/>
       <c r="BY70"/>
       <c r="BZ70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA70" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB70" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC70"/>
       <c r="CD70"/>
@@ -11926,11 +11806,9 @@
         <v>480</v>
       </c>
       <c r="X71"/>
-      <c r="Y71" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y71"/>
       <c r="Z71" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA71"/>
       <c r="AB71"/>
@@ -11943,10 +11821,10 @@
       </c>
       <c r="AH71"/>
       <c r="AI71" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ71" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK71"/>
       <c r="AL71"/>
@@ -11978,19 +11856,19 @@
       <c r="BL71"/>
       <c r="BM71"/>
       <c r="BN71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR71" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS71"/>
       <c r="BT71"/>
@@ -12000,13 +11878,13 @@
       <c r="BX71"/>
       <c r="BY71"/>
       <c r="BZ71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB71" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC71"/>
       <c r="CD71"/>
@@ -12083,11 +11961,9 @@
         <v>481</v>
       </c>
       <c r="X72"/>
-      <c r="Y72" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y72"/>
       <c r="Z72" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA72"/>
       <c r="AB72"/>
@@ -12100,10 +11976,10 @@
       </c>
       <c r="AH72"/>
       <c r="AI72" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ72" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK72"/>
       <c r="AL72"/>
@@ -12135,19 +12011,19 @@
       <c r="BL72"/>
       <c r="BM72"/>
       <c r="BN72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR72" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS72"/>
       <c r="BT72"/>
@@ -12157,13 +12033,13 @@
       <c r="BX72"/>
       <c r="BY72"/>
       <c r="BZ72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA72" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB72" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC72"/>
       <c r="CD72"/>
@@ -12240,11 +12116,9 @@
         <v>480</v>
       </c>
       <c r="X73"/>
-      <c r="Y73" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y73"/>
       <c r="Z73" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA73"/>
       <c r="AB73"/>
@@ -12257,10 +12131,10 @@
       </c>
       <c r="AH73"/>
       <c r="AI73" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ73" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK73"/>
       <c r="AL73"/>
@@ -12292,19 +12166,19 @@
       <c r="BL73"/>
       <c r="BM73"/>
       <c r="BN73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR73" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS73"/>
       <c r="BT73"/>
@@ -12314,13 +12188,13 @@
       <c r="BX73"/>
       <c r="BY73"/>
       <c r="BZ73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA73" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB73" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC73"/>
       <c r="CD73"/>
@@ -12397,11 +12271,9 @@
         <v>480</v>
       </c>
       <c r="X74"/>
-      <c r="Y74" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y74"/>
       <c r="Z74" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA74"/>
       <c r="AB74"/>
@@ -12414,10 +12286,10 @@
       </c>
       <c r="AH74"/>
       <c r="AI74" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ74" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK74"/>
       <c r="AL74"/>
@@ -12449,19 +12321,19 @@
       <c r="BL74"/>
       <c r="BM74"/>
       <c r="BN74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR74" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS74"/>
       <c r="BT74"/>
@@ -12471,13 +12343,13 @@
       <c r="BX74"/>
       <c r="BY74"/>
       <c r="BZ74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA74" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB74" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC74"/>
       <c r="CD74"/>
@@ -12554,11 +12426,9 @@
         <v>481</v>
       </c>
       <c r="X75"/>
-      <c r="Y75" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y75"/>
       <c r="Z75" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA75"/>
       <c r="AB75"/>
@@ -12571,10 +12441,10 @@
       </c>
       <c r="AH75"/>
       <c r="AI75" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ75" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK75"/>
       <c r="AL75"/>
@@ -12606,19 +12476,19 @@
       <c r="BL75"/>
       <c r="BM75"/>
       <c r="BN75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR75" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS75"/>
       <c r="BT75"/>
@@ -12628,13 +12498,13 @@
       <c r="BX75"/>
       <c r="BY75"/>
       <c r="BZ75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB75" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC75"/>
       <c r="CD75"/>
@@ -12711,11 +12581,9 @@
         <v>481</v>
       </c>
       <c r="X76"/>
-      <c r="Y76" t="s">
-        <v>492</v>
-      </c>
+      <c r="Y76"/>
       <c r="Z76" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA76"/>
       <c r="AB76"/>
@@ -12728,10 +12596,10 @@
       </c>
       <c r="AH76"/>
       <c r="AI76" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ76" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK76"/>
       <c r="AL76"/>
@@ -12763,19 +12631,19 @@
       <c r="BL76"/>
       <c r="BM76"/>
       <c r="BN76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR76" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS76"/>
       <c r="BT76"/>
@@ -12785,13 +12653,13 @@
       <c r="BX76"/>
       <c r="BY76"/>
       <c r="BZ76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA76" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB76" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC76"/>
       <c r="CD76"/>
@@ -12975,11 +12843,9 @@
         <v>480</v>
       </c>
       <c r="X78"/>
-      <c r="Y78" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y78"/>
       <c r="Z78" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA78"/>
       <c r="AB78"/>
@@ -12992,10 +12858,10 @@
       </c>
       <c r="AH78"/>
       <c r="AI78" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ78" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK78"/>
       <c r="AL78"/>
@@ -13027,19 +12893,19 @@
       <c r="BL78"/>
       <c r="BM78"/>
       <c r="BN78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR78" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS78"/>
       <c r="BT78"/>
@@ -13049,13 +12915,13 @@
       <c r="BX78"/>
       <c r="BY78"/>
       <c r="BZ78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA78" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB78" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC78"/>
       <c r="CD78"/>
@@ -13132,11 +12998,9 @@
         <v>480</v>
       </c>
       <c r="X79"/>
-      <c r="Y79" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y79"/>
       <c r="Z79" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA79"/>
       <c r="AB79"/>
@@ -13149,10 +13013,10 @@
       </c>
       <c r="AH79"/>
       <c r="AI79" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ79" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK79"/>
       <c r="AL79"/>
@@ -13184,19 +13048,19 @@
       <c r="BL79"/>
       <c r="BM79"/>
       <c r="BN79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR79" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS79"/>
       <c r="BT79"/>
@@ -13206,13 +13070,13 @@
       <c r="BX79"/>
       <c r="BY79"/>
       <c r="BZ79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA79" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB79" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC79"/>
       <c r="CD79"/>
@@ -13396,11 +13260,9 @@
         <v>481</v>
       </c>
       <c r="X81"/>
-      <c r="Y81" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y81"/>
       <c r="Z81" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA81"/>
       <c r="AB81"/>
@@ -13444,19 +13306,19 @@
       <c r="BL81"/>
       <c r="BM81"/>
       <c r="BN81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR81" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS81"/>
       <c r="BT81"/>
@@ -13466,13 +13328,13 @@
       <c r="BX81"/>
       <c r="BY81"/>
       <c r="BZ81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA81" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB81" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC81"/>
       <c r="CD81"/>
@@ -13549,11 +13411,9 @@
         <v>481</v>
       </c>
       <c r="X82"/>
-      <c r="Y82" t="s">
-        <v>493</v>
-      </c>
+      <c r="Y82"/>
       <c r="Z82" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA82"/>
       <c r="AB82"/>
@@ -13566,10 +13426,10 @@
       </c>
       <c r="AH82"/>
       <c r="AI82" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ82" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK82"/>
       <c r="AL82"/>
@@ -13690,11 +13550,9 @@
         <v>481</v>
       </c>
       <c r="X83"/>
-      <c r="Y83" t="s">
-        <v>493</v>
-      </c>
+      <c r="Y83"/>
       <c r="Z83" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA83"/>
       <c r="AB83"/>
@@ -13707,10 +13565,10 @@
       </c>
       <c r="AH83"/>
       <c r="AI83" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ83" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK83"/>
       <c r="AL83"/>
@@ -13742,19 +13600,19 @@
       <c r="BL83"/>
       <c r="BM83"/>
       <c r="BN83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR83" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS83"/>
       <c r="BT83"/>
@@ -13764,13 +13622,13 @@
       <c r="BX83"/>
       <c r="BY83"/>
       <c r="BZ83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB83" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC83"/>
       <c r="CD83"/>
@@ -13847,11 +13705,9 @@
         <v>481</v>
       </c>
       <c r="X84"/>
-      <c r="Y84" t="s">
-        <v>493</v>
-      </c>
+      <c r="Y84"/>
       <c r="Z84" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA84"/>
       <c r="AB84"/>
@@ -13864,10 +13720,10 @@
       </c>
       <c r="AH84"/>
       <c r="AI84" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ84" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK84"/>
       <c r="AL84"/>
@@ -13899,19 +13755,19 @@
       <c r="BL84"/>
       <c r="BM84"/>
       <c r="BN84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR84" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS84"/>
       <c r="BT84"/>
@@ -13921,13 +13777,13 @@
       <c r="BX84"/>
       <c r="BY84"/>
       <c r="BZ84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA84" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB84" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC84"/>
       <c r="CD84"/>
@@ -14004,11 +13860,9 @@
         <v>481</v>
       </c>
       <c r="X85"/>
-      <c r="Y85" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y85"/>
       <c r="Z85" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA85"/>
       <c r="AB85"/>
@@ -14021,10 +13875,10 @@
       </c>
       <c r="AH85"/>
       <c r="AI85" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ85" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK85"/>
       <c r="AL85"/>
@@ -14056,19 +13910,19 @@
       <c r="BL85"/>
       <c r="BM85"/>
       <c r="BN85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS85"/>
       <c r="BT85"/>
@@ -14078,13 +13932,13 @@
       <c r="BX85"/>
       <c r="BY85"/>
       <c r="BZ85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA85" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB85" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC85"/>
       <c r="CD85"/>
@@ -14165,11 +14019,9 @@
         <v>481</v>
       </c>
       <c r="X86"/>
-      <c r="Y86" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y86"/>
       <c r="Z86" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -14182,10 +14034,10 @@
       </c>
       <c r="AH86"/>
       <c r="AI86" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ86" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK86"/>
       <c r="AL86"/>
@@ -14199,7 +14051,7 @@
       <c r="AT86"/>
       <c r="AU86"/>
       <c r="AV86" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW86" t="s">
         <v>390</v>
@@ -14207,7 +14059,9 @@
       <c r="AX86"/>
       <c r="AY86"/>
       <c r="AZ86"/>
-      <c r="BA86"/>
+      <c r="BA86" t="s">
+        <v>488</v>
+      </c>
       <c r="BB86"/>
       <c r="BC86"/>
       <c r="BD86"/>
@@ -14221,19 +14075,19 @@
       <c r="BL86"/>
       <c r="BM86"/>
       <c r="BN86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR86" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS86"/>
       <c r="BT86"/>
@@ -14243,13 +14097,13 @@
       <c r="BX86"/>
       <c r="BY86"/>
       <c r="BZ86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA86" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB86" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC86"/>
       <c r="CD86"/>
@@ -14433,11 +14287,9 @@
         <v>480</v>
       </c>
       <c r="X88"/>
-      <c r="Y88" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y88"/>
       <c r="Z88" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA88"/>
       <c r="AB88"/>
@@ -14481,19 +14333,19 @@
       <c r="BL88"/>
       <c r="BM88"/>
       <c r="BN88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR88" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS88"/>
       <c r="BT88"/>
@@ -14503,13 +14355,13 @@
       <c r="BX88"/>
       <c r="BY88"/>
       <c r="BZ88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA88" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB88" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC88"/>
       <c r="CD88"/>
@@ -14590,11 +14442,9 @@
         <v>480</v>
       </c>
       <c r="X89"/>
-      <c r="Y89" t="s">
-        <v>483</v>
-      </c>
+      <c r="Y89"/>
       <c r="Z89" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA89"/>
       <c r="AB89"/>
@@ -14607,10 +14457,10 @@
       </c>
       <c r="AH89"/>
       <c r="AI89" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ89" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK89"/>
       <c r="AL89"/>
@@ -14624,7 +14474,7 @@
       <c r="AT89"/>
       <c r="AU89"/>
       <c r="AV89" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW89" t="s">
         <v>390</v>
@@ -14632,7 +14482,9 @@
       <c r="AX89"/>
       <c r="AY89"/>
       <c r="AZ89"/>
-      <c r="BA89"/>
+      <c r="BA89" t="s">
+        <v>487</v>
+      </c>
       <c r="BB89"/>
       <c r="BC89"/>
       <c r="BD89"/>
@@ -14646,19 +14498,19 @@
       <c r="BL89"/>
       <c r="BM89"/>
       <c r="BN89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR89" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS89"/>
       <c r="BT89"/>
@@ -14668,13 +14520,13 @@
       <c r="BX89"/>
       <c r="BY89"/>
       <c r="BZ89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA89" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB89" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC89"/>
       <c r="CD89"/>
@@ -14858,11 +14710,9 @@
         <v>481</v>
       </c>
       <c r="X91"/>
-      <c r="Y91" t="s">
-        <v>494</v>
-      </c>
+      <c r="Y91"/>
       <c r="Z91" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA91"/>
       <c r="AB91"/>
@@ -14906,19 +14756,19 @@
       <c r="BL91"/>
       <c r="BM91"/>
       <c r="BN91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR91" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS91"/>
       <c r="BT91"/>
@@ -14928,13 +14778,13 @@
       <c r="BX91"/>
       <c r="BY91"/>
       <c r="BZ91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA91" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB91" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC91"/>
       <c r="CD91"/>
@@ -15118,11 +14968,9 @@
         <v>480</v>
       </c>
       <c r="X93"/>
-      <c r="Y93" t="s">
-        <v>487</v>
-      </c>
+      <c r="Y93"/>
       <c r="Z93" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA93"/>
       <c r="AB93"/>
@@ -15166,19 +15014,19 @@
       <c r="BL93"/>
       <c r="BM93"/>
       <c r="BN93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR93" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS93"/>
       <c r="BT93"/>
@@ -15188,13 +15036,13 @@
       <c r="BX93"/>
       <c r="BY93"/>
       <c r="BZ93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB93" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC93"/>
       <c r="CD93"/>
@@ -15275,11 +15123,9 @@
         <v>481</v>
       </c>
       <c r="X94"/>
-      <c r="Y94" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y94"/>
       <c r="Z94" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA94"/>
       <c r="AB94"/>
@@ -15292,10 +15138,10 @@
       </c>
       <c r="AH94"/>
       <c r="AI94" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ94" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK94"/>
       <c r="AL94"/>
@@ -15309,7 +15155,7 @@
       <c r="AT94"/>
       <c r="AU94"/>
       <c r="AV94" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW94" t="s">
         <v>390</v>
@@ -15317,7 +15163,9 @@
       <c r="AX94"/>
       <c r="AY94"/>
       <c r="AZ94"/>
-      <c r="BA94"/>
+      <c r="BA94" t="s">
+        <v>488</v>
+      </c>
       <c r="BB94"/>
       <c r="BC94"/>
       <c r="BD94"/>
@@ -15331,19 +15179,19 @@
       <c r="BL94"/>
       <c r="BM94"/>
       <c r="BN94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR94" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS94"/>
       <c r="BT94"/>
@@ -15353,13 +15201,13 @@
       <c r="BX94"/>
       <c r="BY94"/>
       <c r="BZ94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB94" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC94"/>
       <c r="CD94"/>
@@ -15547,11 +15395,9 @@
         <v>481</v>
       </c>
       <c r="X96"/>
-      <c r="Y96" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y96"/>
       <c r="Z96" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA96"/>
       <c r="AB96"/>
@@ -15564,10 +15410,10 @@
       </c>
       <c r="AH96"/>
       <c r="AI96" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ96" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK96"/>
       <c r="AL96"/>
@@ -15581,7 +15427,7 @@
       <c r="AT96"/>
       <c r="AU96"/>
       <c r="AV96" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW96" t="s">
         <v>390</v>
@@ -15589,7 +15435,9 @@
       <c r="AX96"/>
       <c r="AY96"/>
       <c r="AZ96"/>
-      <c r="BA96"/>
+      <c r="BA96" t="s">
+        <v>487</v>
+      </c>
       <c r="BB96"/>
       <c r="BC96"/>
       <c r="BD96"/>
@@ -15603,19 +15451,19 @@
       <c r="BL96"/>
       <c r="BM96"/>
       <c r="BN96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR96" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS96"/>
       <c r="BT96"/>
@@ -15625,13 +15473,13 @@
       <c r="BX96"/>
       <c r="BY96"/>
       <c r="BZ96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA96" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB96" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC96"/>
       <c r="CD96"/>
@@ -15815,11 +15663,9 @@
         <v>481</v>
       </c>
       <c r="X98"/>
-      <c r="Y98" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y98"/>
       <c r="Z98" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA98"/>
       <c r="AB98"/>
@@ -15832,10 +15678,10 @@
       </c>
       <c r="AH98"/>
       <c r="AI98" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ98" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK98"/>
       <c r="AL98"/>
@@ -15867,19 +15713,19 @@
       <c r="BL98"/>
       <c r="BM98"/>
       <c r="BN98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR98" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS98"/>
       <c r="BT98"/>
@@ -15889,13 +15735,13 @@
       <c r="BX98"/>
       <c r="BY98"/>
       <c r="BZ98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB98" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC98"/>
       <c r="CD98"/>
@@ -15972,11 +15818,9 @@
         <v>481</v>
       </c>
       <c r="X99"/>
-      <c r="Y99" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y99"/>
       <c r="Z99" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA99"/>
       <c r="AB99"/>
@@ -15989,10 +15833,10 @@
       </c>
       <c r="AH99"/>
       <c r="AI99" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ99" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK99"/>
       <c r="AL99"/>
@@ -16113,11 +15957,9 @@
         <v>481</v>
       </c>
       <c r="X100"/>
-      <c r="Y100" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y100"/>
       <c r="Z100" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA100"/>
       <c r="AB100"/>
@@ -16130,10 +15972,10 @@
       </c>
       <c r="AH100"/>
       <c r="AI100" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ100" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK100"/>
       <c r="AL100"/>
@@ -16165,19 +16007,19 @@
       <c r="BL100"/>
       <c r="BM100"/>
       <c r="BN100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR100" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS100"/>
       <c r="BT100"/>
@@ -16187,13 +16029,13 @@
       <c r="BX100"/>
       <c r="BY100"/>
       <c r="BZ100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA100" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB100" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC100"/>
       <c r="CD100"/>
@@ -16270,11 +16112,9 @@
         <v>480</v>
       </c>
       <c r="X101"/>
-      <c r="Y101" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y101"/>
       <c r="Z101" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA101"/>
       <c r="AB101"/>
@@ -16287,10 +16127,10 @@
       </c>
       <c r="AH101"/>
       <c r="AI101" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ101" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK101"/>
       <c r="AL101"/>
@@ -16322,19 +16162,19 @@
       <c r="BL101"/>
       <c r="BM101"/>
       <c r="BN101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR101" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS101"/>
       <c r="BT101"/>
@@ -16344,13 +16184,13 @@
       <c r="BX101"/>
       <c r="BY101"/>
       <c r="BZ101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA101" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB101" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC101"/>
       <c r="CD101"/>
@@ -16427,11 +16267,9 @@
         <v>480</v>
       </c>
       <c r="X102"/>
-      <c r="Y102" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y102"/>
       <c r="Z102" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA102"/>
       <c r="AB102"/>
@@ -16444,10 +16282,10 @@
       </c>
       <c r="AH102"/>
       <c r="AI102" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ102" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK102"/>
       <c r="AL102"/>
@@ -16479,19 +16317,19 @@
       <c r="BL102"/>
       <c r="BM102"/>
       <c r="BN102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR102" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS102"/>
       <c r="BT102"/>
@@ -16501,13 +16339,13 @@
       <c r="BX102"/>
       <c r="BY102"/>
       <c r="BZ102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA102" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB102" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC102"/>
       <c r="CD102"/>
@@ -16588,11 +16426,9 @@
         <v>480</v>
       </c>
       <c r="X103"/>
-      <c r="Y103" t="s">
-        <v>494</v>
-      </c>
+      <c r="Y103"/>
       <c r="Z103" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA103"/>
       <c r="AB103"/>
@@ -16618,7 +16454,7 @@
       <c r="AT103"/>
       <c r="AU103"/>
       <c r="AV103" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW103" t="s">
         <v>390</v>
@@ -16627,7 +16463,7 @@
       <c r="AY103"/>
       <c r="AZ103"/>
       <c r="BA103" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB103"/>
       <c r="BC103"/>
@@ -16642,19 +16478,19 @@
       <c r="BL103"/>
       <c r="BM103"/>
       <c r="BN103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR103" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS103"/>
       <c r="BT103"/>
@@ -16664,13 +16500,13 @@
       <c r="BX103"/>
       <c r="BY103"/>
       <c r="BZ103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA103" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB103" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC103"/>
       <c r="CD103"/>
@@ -16751,11 +16587,9 @@
         <v>480</v>
       </c>
       <c r="X104"/>
-      <c r="Y104" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y104"/>
       <c r="Z104" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA104"/>
       <c r="AB104"/>
@@ -16781,7 +16615,7 @@
       <c r="AT104"/>
       <c r="AU104"/>
       <c r="AV104" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW104" t="s">
         <v>390</v>
@@ -16790,7 +16624,7 @@
       <c r="AY104"/>
       <c r="AZ104"/>
       <c r="BA104" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB104"/>
       <c r="BC104"/>
@@ -16805,19 +16639,19 @@
       <c r="BL104"/>
       <c r="BM104"/>
       <c r="BN104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR104" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS104"/>
       <c r="BT104"/>
@@ -16827,13 +16661,13 @@
       <c r="BX104"/>
       <c r="BY104"/>
       <c r="BZ104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA104" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB104" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC104"/>
       <c r="CD104"/>
@@ -16914,11 +16748,9 @@
         <v>480</v>
       </c>
       <c r="X105"/>
-      <c r="Y105" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y105"/>
       <c r="Z105" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA105"/>
       <c r="AB105"/>
@@ -16944,7 +16776,7 @@
       <c r="AT105"/>
       <c r="AU105"/>
       <c r="AV105" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW105" t="s">
         <v>390</v>
@@ -16953,7 +16785,7 @@
       <c r="AY105"/>
       <c r="AZ105"/>
       <c r="BA105" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB105"/>
       <c r="BC105"/>
@@ -16968,19 +16800,19 @@
       <c r="BL105"/>
       <c r="BM105"/>
       <c r="BN105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR105" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS105"/>
       <c r="BT105"/>
@@ -16990,13 +16822,13 @@
       <c r="BX105"/>
       <c r="BY105"/>
       <c r="BZ105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA105" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB105" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC105"/>
       <c r="CD105"/>
@@ -17077,11 +16909,9 @@
         <v>480</v>
       </c>
       <c r="X106"/>
-      <c r="Y106" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y106"/>
       <c r="Z106" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA106"/>
       <c r="AB106"/>
@@ -17107,7 +16937,7 @@
       <c r="AT106"/>
       <c r="AU106"/>
       <c r="AV106" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW106" t="s">
         <v>390</v>
@@ -17116,7 +16946,7 @@
       <c r="AY106"/>
       <c r="AZ106"/>
       <c r="BA106" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB106"/>
       <c r="BC106"/>
@@ -17131,19 +16961,19 @@
       <c r="BL106"/>
       <c r="BM106"/>
       <c r="BN106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR106" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS106"/>
       <c r="BT106"/>
@@ -17153,13 +16983,13 @@
       <c r="BX106"/>
       <c r="BY106"/>
       <c r="BZ106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA106" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB106" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC106"/>
       <c r="CD106"/>
@@ -17240,11 +17070,9 @@
         <v>480</v>
       </c>
       <c r="X107"/>
-      <c r="Y107" t="s">
-        <v>495</v>
-      </c>
+      <c r="Y107"/>
       <c r="Z107" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA107"/>
       <c r="AB107"/>
@@ -17270,7 +17098,7 @@
       <c r="AT107"/>
       <c r="AU107"/>
       <c r="AV107" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW107" t="s">
         <v>390</v>
@@ -17279,7 +17107,7 @@
       <c r="AY107"/>
       <c r="AZ107"/>
       <c r="BA107" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB107"/>
       <c r="BC107"/>
@@ -17294,19 +17122,19 @@
       <c r="BL107"/>
       <c r="BM107"/>
       <c r="BN107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR107" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS107"/>
       <c r="BT107"/>
@@ -17316,13 +17144,13 @@
       <c r="BX107"/>
       <c r="BY107"/>
       <c r="BZ107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA107" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB107" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC107"/>
       <c r="CD107"/>
@@ -17403,11 +17231,9 @@
         <v>480</v>
       </c>
       <c r="X108"/>
-      <c r="Y108" t="s">
-        <v>494</v>
-      </c>
+      <c r="Y108"/>
       <c r="Z108" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA108"/>
       <c r="AB108"/>
@@ -17433,7 +17259,7 @@
       <c r="AT108"/>
       <c r="AU108"/>
       <c r="AV108" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="AW108" t="s">
         <v>390</v>
@@ -17442,7 +17268,7 @@
       <c r="AY108"/>
       <c r="AZ108"/>
       <c r="BA108" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="BB108"/>
       <c r="BC108"/>
@@ -17457,19 +17283,19 @@
       <c r="BL108"/>
       <c r="BM108"/>
       <c r="BN108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR108" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS108"/>
       <c r="BT108"/>
@@ -17479,13 +17305,13 @@
       <c r="BX108"/>
       <c r="BY108"/>
       <c r="BZ108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA108" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB108" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC108"/>
       <c r="CD108"/>
@@ -17562,11 +17388,9 @@
         <v>481</v>
       </c>
       <c r="X109"/>
-      <c r="Y109" t="s">
-        <v>494</v>
-      </c>
+      <c r="Y109"/>
       <c r="Z109" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA109"/>
       <c r="AB109"/>
@@ -17579,10 +17403,10 @@
       </c>
       <c r="AH109"/>
       <c r="AI109" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ109" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK109"/>
       <c r="AL109"/>
@@ -17614,19 +17438,19 @@
       <c r="BL109"/>
       <c r="BM109"/>
       <c r="BN109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BO109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BP109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BQ109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="BR109" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="BS109"/>
       <c r="BT109"/>
@@ -17636,13 +17460,13 @@
       <c r="BX109"/>
       <c r="BY109"/>
       <c r="BZ109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CA109" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="CB109" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="CC109"/>
       <c r="CD109"/>
@@ -17826,11 +17650,9 @@
         <v>481</v>
       </c>
       <c r="X111"/>
-      <c r="Y111" t="s">
-        <v>484</v>
-      </c>
+      <c r="Y111"/>
       <c r="Z111" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AA111"/>
       <c r="AB111"/>
@@ -17843,10 +17665,10 @@
       </c>
       <c r="AH111"/>
       <c r="AI111" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AJ111" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AK111"/>
       <c r="AL111"/>
